--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>353.6328482990636</v>
+        <v>12.48634390574333</v>
       </c>
       <c r="R2">
-        <v>3182.695634691573</v>
+        <v>112.37709515169</v>
       </c>
       <c r="S2">
-        <v>0.008350356079208421</v>
+        <v>0.0004587857516120906</v>
       </c>
       <c r="T2">
-        <v>0.008350356079208421</v>
+        <v>0.0004587857516120906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>287.357989311393</v>
+        <v>31.012417031995</v>
       </c>
       <c r="R3">
-        <v>2586.221903802537</v>
+        <v>279.111753287955</v>
       </c>
       <c r="S3">
-        <v>0.006785403404963759</v>
+        <v>0.00113948928243014</v>
       </c>
       <c r="T3">
-        <v>0.006785403404963759</v>
+        <v>0.00113948928243014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>42.82483710071234</v>
+        <v>4.621767122873889</v>
       </c>
       <c r="R4">
-        <v>385.423533906411</v>
+        <v>41.595904105865</v>
       </c>
       <c r="S4">
-        <v>0.001011225740326653</v>
+        <v>0.0001698175958671479</v>
       </c>
       <c r="T4">
-        <v>0.001011225740326653</v>
+        <v>0.0001698175958671479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>20579.79411061256</v>
+        <v>6733.042869632431</v>
       </c>
       <c r="R5">
-        <v>185218.1469955131</v>
+        <v>60597.38582669188</v>
       </c>
       <c r="S5">
-        <v>0.4859520536256311</v>
+        <v>0.2473922035865027</v>
       </c>
       <c r="T5">
-        <v>0.4859520536256312</v>
+        <v>0.2473922035865027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>16722.90423390437</v>
@@ -818,10 +818,10 @@
         <v>150506.1381051393</v>
       </c>
       <c r="S6">
-        <v>0.3948790552214472</v>
+        <v>0.6144496936817382</v>
       </c>
       <c r="T6">
-        <v>0.3948790552214472</v>
+        <v>0.6144496936817382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>2492.207199054805</v>
@@ -880,10 +880,10 @@
         <v>22429.86479149325</v>
       </c>
       <c r="S7">
-        <v>0.05884865513871831</v>
+        <v>0.09157117260445614</v>
       </c>
       <c r="T7">
-        <v>0.05884865513871831</v>
+        <v>0.09157117260445614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>967.4321415548874</v>
+        <v>316.5124999569534</v>
       </c>
       <c r="R8">
-        <v>8706.889273993987</v>
+        <v>2848.61249961258</v>
       </c>
       <c r="S8">
-        <v>0.02284403980939761</v>
+        <v>0.01162961922909875</v>
       </c>
       <c r="T8">
-        <v>0.02284403980939761</v>
+        <v>0.01162961922909875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
-        <v>786.1242425005898</v>
+        <v>786.12424250059</v>
       </c>
       <c r="R9">
-        <v>7075.118182505308</v>
+        <v>7075.118182505309</v>
       </c>
       <c r="S9">
-        <v>0.0185628042727141</v>
+        <v>0.02888456414292937</v>
       </c>
       <c r="T9">
-        <v>0.0185628042727141</v>
+        <v>0.02888456414292937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>117.1557565066589</v>
@@ -1066,10 +1066,10 @@
         <v>1054.40180855993</v>
       </c>
       <c r="S10">
-        <v>0.002766406707592698</v>
+        <v>0.004304654125365513</v>
       </c>
       <c r="T10">
-        <v>0.002766406707592698</v>
+        <v>0.004304654125365513</v>
       </c>
     </row>
   </sheetData>
